--- a/sample_excel_files/hidden_cells_submission_1.xlsx
+++ b/sample_excel_files/hidden_cells_submission_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5AB4EBC-9275-8946-A4E2-7837E1C5AEF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD6D6E8-7678-674C-B02D-9E9C698224A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zipcode" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Answer</t>
   </si>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -399,11 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,7 +424,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>43215</v>
+        <v>432215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
